--- a/Mifos Automation Excels/Loan Product/4757-SUBMITRD01JAN2015(AMT5000-PRD06MNTH)-APRACT01FEB2015.xlsx
+++ b/Mifos Automation Excels/Loan Product/4757-SUBMITRD01JAN2015(AMT5000-PRD06MNTH)-APRACT01FEB2015.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -521,7 +521,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +615,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
